--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AVTADOR.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AVTADOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42F5B03-B58F-4A16-8FCC-6389387992E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63466B4-DF56-48ED-99EF-8F30EBDA784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,6 +701,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,15 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1022,18 +1022,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1085,7 +1085,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="35">
-        <f t="shared" ref="I3:I22" si="0">F3-G3-H3</f>
+        <f>F3-G3-H3</f>
         <v>200000</v>
       </c>
       <c r="J3" s="36"/>
@@ -1106,9 +1106,9 @@
         <v>200000</v>
       </c>
       <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="32">
-        <f t="shared" si="0"/>
+        <f>F4-G4-H4</f>
         <v>200000</v>
       </c>
       <c r="J4" s="38"/>
@@ -1117,10 +1117,10 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="37"/>
@@ -1129,10 +1129,12 @@
         <v>100000</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="7">
+        <v>15000</v>
+      </c>
       <c r="I5" s="32">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <f>F5-G5-H5</f>
+        <v>85000</v>
       </c>
       <c r="J5" s="38"/>
     </row>
@@ -1153,13 +1155,13 @@
         <v>450</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F22" si="1">D6*E6</f>
+        <f t="shared" ref="F6:F22" si="0">D6*E6</f>
         <v>162450</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="34">
-        <f t="shared" si="0"/>
+        <f>F6-G6-H6</f>
         <v>162450</v>
       </c>
       <c r="J6" s="39"/>
@@ -1181,7 +1183,7 @@
         <v>330</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>117150</v>
       </c>
       <c r="G7" s="9">
@@ -1189,7 +1191,7 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="32">
-        <f t="shared" si="0"/>
+        <f>F7-G7-H7</f>
         <v>92150</v>
       </c>
       <c r="J7" s="40"/>
@@ -1211,7 +1213,7 @@
         <v>380</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133380</v>
       </c>
       <c r="G8" s="9">
@@ -1219,7 +1221,7 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="32">
-        <f t="shared" si="0"/>
+        <f>F8-G8-H8</f>
         <v>108380</v>
       </c>
       <c r="J8" s="40"/>
@@ -1241,7 +1243,7 @@
         <v>410</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>162770</v>
       </c>
       <c r="G9" s="9">
@@ -1249,7 +1251,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="32">
-        <f t="shared" si="0"/>
+        <f>F9-G9-H9</f>
         <v>137770</v>
       </c>
       <c r="J9" s="40"/>
@@ -1271,7 +1273,7 @@
         <v>410</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>157850</v>
       </c>
       <c r="G10" s="9">
@@ -1279,7 +1281,7 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="32">
-        <f t="shared" si="0"/>
+        <f>F10-G10-H10</f>
         <v>132850</v>
       </c>
       <c r="J10" s="40"/>
@@ -1301,7 +1303,7 @@
         <v>400</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>148800</v>
       </c>
       <c r="G11" s="9">
@@ -1309,7 +1311,7 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="32">
-        <f t="shared" si="0"/>
+        <f>F11-G11-H11</f>
         <v>123800</v>
       </c>
       <c r="J11" s="40"/>
@@ -1331,7 +1333,7 @@
         <v>380</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>126160</v>
       </c>
       <c r="G12" s="9">
@@ -1339,7 +1341,7 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="32">
-        <f t="shared" si="0"/>
+        <f>F12-G12-H12</f>
         <v>101160</v>
       </c>
       <c r="J12" s="40"/>
@@ -1361,7 +1363,7 @@
         <v>380</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145920</v>
       </c>
       <c r="G13" s="9">
@@ -1369,7 +1371,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="32">
-        <f t="shared" si="0"/>
+        <f>F13-G13-H13</f>
         <v>120920</v>
       </c>
       <c r="J13" s="40"/>
@@ -1391,7 +1393,7 @@
         <v>350</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>125300</v>
       </c>
       <c r="G14" s="9">
@@ -1399,7 +1401,7 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="32">
-        <f t="shared" si="0"/>
+        <f>F14-G14-H14</f>
         <v>100300</v>
       </c>
       <c r="J14" s="40"/>
@@ -1421,7 +1423,7 @@
         <v>380</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>126920</v>
       </c>
       <c r="G15" s="9">
@@ -1429,7 +1431,7 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="32">
-        <f t="shared" si="0"/>
+        <f>F15-G15-H15</f>
         <v>101920</v>
       </c>
       <c r="J15" s="40"/>
@@ -1451,7 +1453,7 @@
         <v>400</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>153200</v>
       </c>
       <c r="G16" s="9">
@@ -1459,7 +1461,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="32">
-        <f t="shared" si="0"/>
+        <f>F16-G16-H16</f>
         <v>128200</v>
       </c>
       <c r="J16" s="40"/>
@@ -1481,7 +1483,7 @@
         <v>400</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>152800</v>
       </c>
       <c r="G17" s="9">
@@ -1489,7 +1491,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="32">
-        <f t="shared" si="0"/>
+        <f>F17-G17-H17</f>
         <v>127800</v>
       </c>
       <c r="J17" s="40"/>
@@ -1511,7 +1513,7 @@
         <v>380</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>123120</v>
       </c>
       <c r="G18" s="9">
@@ -1519,7 +1521,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="32">
-        <f t="shared" si="0"/>
+        <f>F18-G18-H18</f>
         <v>98120</v>
       </c>
       <c r="J18" s="40"/>
@@ -1541,7 +1543,7 @@
         <v>410</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>162770</v>
       </c>
       <c r="G19" s="9">
@@ -1549,7 +1551,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="32">
-        <f t="shared" si="0"/>
+        <f>F19-G19-H19</f>
         <v>137770</v>
       </c>
       <c r="J19" s="40"/>
@@ -1571,7 +1573,7 @@
         <v>400</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>153600</v>
       </c>
       <c r="G20" s="9">
@@ -1579,7 +1581,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="32">
-        <f t="shared" si="0"/>
+        <f>F20-G20-H20</f>
         <v>128600</v>
       </c>
       <c r="J20" s="40"/>
@@ -1601,7 +1603,7 @@
         <v>350</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>125300</v>
       </c>
       <c r="G21" s="9">
@@ -1609,13 +1611,13 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="32">
-        <f t="shared" si="0"/>
+        <f>F21-G21-H21</f>
         <v>100300</v>
       </c>
       <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="58">
+      <c r="A22" s="55">
         <v>20</v>
       </c>
       <c r="B22" s="52">
@@ -1631,7 +1633,7 @@
         <v>400</v>
       </c>
       <c r="F22" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>160000</v>
       </c>
       <c r="G22" s="43">
@@ -1639,7 +1641,7 @@
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="44">
-        <f t="shared" si="0"/>
+        <f>F22-G22-H22</f>
         <v>135000</v>
       </c>
       <c r="J22" s="45"/>
@@ -1648,7 +1650,7 @@
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="I24" s="51">
         <f>SUM(I3:I23)</f>
-        <v>2537490</v>
+        <v>2522490</v>
       </c>
     </row>
   </sheetData>

--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AVTADOR.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AVTADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63466B4-DF56-48ED-99EF-8F30EBDA784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84455682-BDF4-4607-8F60-E5069C4BEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>FERHAT YUNUSOV</t>
+  </si>
+  <si>
+    <t>PATENT</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,9 +655,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,24 +1018,25 @@
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,14 +1061,17 @@
       <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1084,68 +1088,73 @@
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="35">
-        <f>F3-G3-H3</f>
+      <c r="I3" s="18"/>
+      <c r="J3" s="34">
+        <f>F3-G3-H3-I3</f>
         <v>200000</v>
       </c>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <v>200000</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="32">
-        <f>F4-G4-H4</f>
+      <c r="I4" s="7"/>
+      <c r="J4" s="32">
+        <f t="shared" ref="J4:J22" si="0">F4-G4-H4-I4</f>
         <v>200000</v>
       </c>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="50">
+      <c r="F5" s="49">
         <v>100000</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="7">
         <v>15000</v>
       </c>
-      <c r="I5" s="32">
-        <f>F5-G5-H5</f>
-        <v>85000</v>
-      </c>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="7">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="28">
@@ -1155,18 +1164,19 @@
         <v>450</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F22" si="0">D6*E6</f>
+        <f t="shared" ref="F6:F22" si="1">D6*E6</f>
         <v>162450</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="34">
-        <f>F6-G6-H6</f>
+      <c r="I6" s="9"/>
+      <c r="J6" s="32">
+        <f t="shared" si="0"/>
         <v>162450</v>
       </c>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1183,20 +1193,21 @@
         <v>330</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117150</v>
       </c>
       <c r="G7" s="9">
         <v>25000</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="32">
-        <f>F7-G7-H7</f>
+      <c r="I7" s="9"/>
+      <c r="J7" s="32">
+        <f t="shared" si="0"/>
         <v>92150</v>
       </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1213,20 +1224,21 @@
         <v>380</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133380</v>
       </c>
       <c r="G8" s="9">
         <v>25000</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="32">
-        <f>F8-G8-H8</f>
+      <c r="I8" s="9"/>
+      <c r="J8" s="32">
+        <f t="shared" si="0"/>
         <v>108380</v>
       </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1243,20 +1255,21 @@
         <v>410</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162770</v>
       </c>
       <c r="G9" s="9">
         <v>25000</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="32">
-        <f>F9-G9-H9</f>
+      <c r="I9" s="9"/>
+      <c r="J9" s="32">
+        <f t="shared" si="0"/>
         <v>137770</v>
       </c>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1273,20 +1286,21 @@
         <v>410</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157850</v>
       </c>
       <c r="G10" s="9">
         <v>25000</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="32">
-        <f>F10-G10-H10</f>
+      <c r="I10" s="9"/>
+      <c r="J10" s="32">
+        <f t="shared" si="0"/>
         <v>132850</v>
       </c>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1303,20 +1317,21 @@
         <v>400</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>148800</v>
       </c>
       <c r="G11" s="9">
         <v>25000</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="32">
-        <f>F11-G11-H11</f>
+      <c r="I11" s="9"/>
+      <c r="J11" s="32">
+        <f t="shared" si="0"/>
         <v>123800</v>
       </c>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1333,20 +1348,21 @@
         <v>380</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126160</v>
       </c>
       <c r="G12" s="9">
         <v>25000</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="32">
-        <f>F12-G12-H12</f>
+      <c r="I12" s="9"/>
+      <c r="J12" s="32">
+        <f t="shared" si="0"/>
         <v>101160</v>
       </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1363,20 +1379,21 @@
         <v>380</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145920</v>
       </c>
       <c r="G13" s="9">
         <v>25000</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="32">
-        <f>F13-G13-H13</f>
+      <c r="I13" s="9"/>
+      <c r="J13" s="32">
+        <f t="shared" si="0"/>
         <v>120920</v>
       </c>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1393,20 +1410,21 @@
         <v>350</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125300</v>
       </c>
       <c r="G14" s="9">
         <v>25000</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="32">
-        <f>F14-G14-H14</f>
+      <c r="I14" s="9"/>
+      <c r="J14" s="32">
+        <f t="shared" si="0"/>
         <v>100300</v>
       </c>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1423,20 +1441,21 @@
         <v>380</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126920</v>
       </c>
       <c r="G15" s="9">
         <v>25000</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="32">
-        <f>F15-G15-H15</f>
+      <c r="I15" s="9"/>
+      <c r="J15" s="32">
+        <f t="shared" si="0"/>
         <v>101920</v>
       </c>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1453,20 +1472,21 @@
         <v>400</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153200</v>
       </c>
       <c r="G16" s="9">
         <v>25000</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="32">
-        <f>F16-G16-H16</f>
+      <c r="I16" s="9"/>
+      <c r="J16" s="32">
+        <f t="shared" si="0"/>
         <v>128200</v>
       </c>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1483,20 +1503,21 @@
         <v>400</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>152800</v>
       </c>
       <c r="G17" s="9">
         <v>25000</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="32">
-        <f>F17-G17-H17</f>
+      <c r="I17" s="9"/>
+      <c r="J17" s="32">
+        <f t="shared" si="0"/>
         <v>127800</v>
       </c>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="39"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1513,20 +1534,21 @@
         <v>380</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123120</v>
       </c>
       <c r="G18" s="9">
         <v>25000</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="32">
-        <f>F18-G18-H18</f>
+      <c r="I18" s="9"/>
+      <c r="J18" s="32">
+        <f t="shared" si="0"/>
         <v>98120</v>
       </c>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1543,20 +1565,21 @@
         <v>410</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162770</v>
       </c>
       <c r="G19" s="9">
         <v>25000</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="32">
-        <f>F19-G19-H19</f>
+      <c r="I19" s="9"/>
+      <c r="J19" s="32">
+        <f t="shared" si="0"/>
         <v>137770</v>
       </c>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1573,20 +1596,21 @@
         <v>400</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
       <c r="G20" s="9">
         <v>25000</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="32">
-        <f>F20-G20-H20</f>
+      <c r="I20" s="9"/>
+      <c r="J20" s="32">
+        <f t="shared" si="0"/>
         <v>128600</v>
       </c>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1603,59 +1627,61 @@
         <v>350</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125300</v>
       </c>
       <c r="G21" s="9">
         <v>25000</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="32">
-        <f>F21-G21-H21</f>
+      <c r="I21" s="9"/>
+      <c r="J21" s="32">
+        <f t="shared" si="0"/>
         <v>100300</v>
       </c>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="55">
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A22" s="54">
         <v>20</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="51">
         <v>429</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="48">
         <v>400</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>400</v>
       </c>
-      <c r="F22" s="42">
-        <f t="shared" si="0"/>
+      <c r="F22" s="41">
+        <f t="shared" si="1"/>
         <v>160000</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <v>25000</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44">
-        <f>F22-G22-H22</f>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43">
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
-      <c r="J22" s="45"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="I24" s="51">
-        <f>SUM(I3:I23)</f>
-        <v>2522490</v>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+      <c r="J24" s="50">
+        <f>SUM(J3:J23)</f>
+        <v>2507490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AVTADOR.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/TEMMUZ 2025/2025 TEMMUZ AYI - AVTADOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\TEMMUZ 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84455682-BDF4-4607-8F60-E5069C4BEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABDF1BB-7DA5-4430-8800-A53A35C86CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="630" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1112,10 +1112,12 @@
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>24900</v>
+      </c>
       <c r="J4" s="32">
         <f t="shared" ref="J4:J22" si="0">F4-G4-H4-I4</f>
-        <v>200000</v>
+        <v>175100</v>
       </c>
       <c r="K4" s="37"/>
     </row>
@@ -1676,7 +1678,7 @@
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="J24" s="50">
         <f>SUM(J3:J23)</f>
-        <v>2507490</v>
+        <v>2482590</v>
       </c>
     </row>
   </sheetData>
